--- a/Scrum/Scrum Sprint Planning.xlsx
+++ b/Scrum/Scrum Sprint Planning.xlsx
@@ -24,20 +24,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Sprint</t>
   </si>
   <si>
     <t>Documentatie</t>
+  </si>
+  <si>
+    <t>Register System, Login System, Account System, Websocket Chat, Friend System</t>
+  </si>
+  <si>
+    <t>Done After Sprint</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Framework, Css, Gui, Forum System, Forum Css</t>
+  </si>
+  <si>
+    <t>Contact information exchange, Business Job Offers, Business Accounts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -53,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,20 +87,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -384,46 +457,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="y">
+      <formula>NOT(ISERROR(SEARCH("y",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="n">
+      <formula>NOT(ISERROR(SEARCH("n",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Scrum/Scrum Sprint Planning.xlsx
+++ b/Scrum/Scrum Sprint Planning.xlsx
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Sprint</t>
   </si>
   <si>
-    <t>Documentatie</t>
-  </si>
-  <si>
     <t>Register System, Login System, Account System, Websocket Chat, Friend System</t>
   </si>
   <si>
@@ -48,6 +45,12 @@
   </si>
   <si>
     <t>Contact information exchange, Business Job Offers, Business Accounts</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Documentation</t>
   </si>
 </sst>
 </file>
@@ -116,17 +119,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -460,7 +453,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,10 +466,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -484,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,10 +488,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -506,10 +499,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -517,18 +510,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C5">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="y">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="y">
       <formula>NOT(ISERROR(SEARCH("y",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="n">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="n">
       <formula>NOT(ISERROR(SEARCH("n",C2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Scrum/Scrum Sprint Planning.xlsx
+++ b/Scrum/Scrum Sprint Planning.xlsx
@@ -44,13 +44,13 @@
     <t>Framework, Css, Gui, Forum System, Forum Css</t>
   </si>
   <si>
-    <t>Contact information exchange, Business Job Offers, Business Accounts</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
     <t>Documentation</t>
+  </si>
+  <si>
+    <t>Contact information exchange, Business Job Offers, Business Accounts, Email Validation, Captcha</t>
   </si>
 </sst>
 </file>
@@ -453,12 +453,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>

--- a/Scrum/Scrum Sprint Planning.xlsx
+++ b/Scrum/Scrum Sprint Planning.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Sprint</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Contact information exchange, Business Job Offers, Business Accounts, Email Validation, Captcha</t>
+  </si>
+  <si>
+    <t>A Sprint is 2 weeks</t>
   </si>
 </sst>
 </file>
@@ -450,18 +453,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="89" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +475,11 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -483,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -494,7 +501,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -505,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
